--- a/downloaded_files/SBES379_Tutorial-35485.xlsx
+++ b/downloaded_files/SBES379_Tutorial-35485.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانه احمد محمد عبد العزيز العشرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jumana Ahmed Mohamed El-Ashry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210215</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>Hamza Ayman Mohyeldin Elghonemy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا ياسر محمد صبري الباجا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Yasser Mohamed Sabry El Baga</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210171</x:t>
   </x:si>
   <x:si>
@@ -60,6 +78,15 @@
     <x:t>salsabeel mostafa ragaa mohamad al alkitkat</x:t>
   </x:si>
   <x:si>
+    <x:t>1210244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف هشام عبد العزيز عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif Hesham Abdelaziz Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210246</x:t>
   </x:si>
   <x:si>
@@ -76,6 +103,51 @@
   </x:si>
   <x:si>
     <x:t>Alia Tarek Omr Tolba Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو احمد صفوت احمد عبد المولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMROU AHMED SAFWAT AHMED ABDELMAWLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو ياسر سيد محمود دومة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Yasser Sayed Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد محمود نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهراتى سامح ميلاد بباوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mehrati Sameh Milad Bebawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا احمد ابراهيم احمد غانم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1200883</x:t>
@@ -209,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -517,9 +589,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.030625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.950625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.550625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.590625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -600,7 +672,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6658396644</x:v>
+        <x:v>45927.4152337616</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -632,7 +704,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.665112037</x:v>
+        <x:v>45906.6658396644</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -664,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4145134259</x:v>
+        <x:v>45906.665112037</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -696,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4150041667</x:v>
+        <x:v>45927.4161042824</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -728,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45906.4145134259</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -760,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45927.4175393519</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -792,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4156043171</x:v>
+        <x:v>45906.4150041667</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -809,6 +881,262 @@
       <x:c r="R8" s="2" t="s"/>
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45906.415122419</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45927.4156795139</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45927.4661828704</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45927.4169633449</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45927.4383224537</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45927.419459919</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45906.4144693287</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45906.4156043171</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES379_Tutorial-35485.xlsx
+++ b/downloaded_files/SBES379_Tutorial-35485.xlsx
@@ -96,15 +96,6 @@
     <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
   </x:si>
   <x:si>
-    <x:t>4220121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه طارق عمر طلبه زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210271</x:t>
   </x:si>
   <x:si>
@@ -139,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Mehrati Sameh Milad Bebawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
   </x:si>
   <x:si>
     <x:t>1210120</x:t>
@@ -896,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45927.4156795139</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4156795139</x:v>
+        <x:v>45927.4661828704</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4661828704</x:v>
+        <x:v>45929.6184330671</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4169633449</x:v>
+        <x:v>45927.4383224537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4383224537</x:v>
+        <x:v>45929.4130815162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/SBES379_Tutorial-35485.xlsx
+++ b/downloaded_files/SBES379_Tutorial-35485.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Amr Yasser Sayed Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد محمود نصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
   </x:si>
   <x:si>
     <x:t>1210084</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -960,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45929.6184330671</x:v>
+        <x:v>45927.4383224537</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4383224537</x:v>
+        <x:v>45929.4130815162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45929.4130815162</x:v>
+        <x:v>45927.419459919</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.419459919</x:v>
+        <x:v>45906.4144693287</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1079,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4144693287</x:v>
+        <x:v>45906.4156043171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45906.4156043171</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
